--- a/20190428.xlsx
+++ b/20190428.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8865B044-6CC6-4291-A28B-B960E537E209}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982FCD67-6BE2-4EB3-B9EF-7D0EEB5EF3B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="113">
   <si>
     <t>分解</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1657,7 +1657,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1716,7 +1716,9 @@
       <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="28" t="s">
+        <v>112</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1731,7 +1733,9 @@
       <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="28" t="s">
+        <v>112</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1944,7 +1948,9 @@
       <c r="C17" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="28" t="s">
+        <v>112</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
